--- a/court_export.xlsx
+++ b/court_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxinzhao/Desktop/atv-qu/smokeManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950FEAB1-E6F7-8B45-9296-3A62A8DAA610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DFEFD4-EA2D-4B46-BA01-C773D55E0940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="760" windowWidth="12140" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,46 +40,46 @@
     <t>街道</t>
   </si>
   <si>
-    <t>其他</t>
+    <t>小区类型（1为商品房，2为保障房，3为历史文化街区，0为其他）</t>
   </si>
   <si>
     <t>小区类型（其他）</t>
   </si>
   <si>
-    <t>建造时间</t>
-  </si>
-  <si>
-    <t>老旧小区改造情况</t>
-  </si>
-  <si>
-    <t>物业管理</t>
-  </si>
-  <si>
-    <t>总建筑面积</t>
-  </si>
-  <si>
-    <t>住宅总套数</t>
-  </si>
-  <si>
-    <t>常住人口</t>
-  </si>
-  <si>
-    <t>六十岁以上常住人口</t>
-  </si>
-  <si>
-    <t>全部数量</t>
-  </si>
-  <si>
-    <t>1-3层</t>
-  </si>
-  <si>
-    <t>4-6层</t>
-  </si>
-  <si>
-    <t>7-9层</t>
-  </si>
-  <si>
-    <t>10层以上</t>
+    <t>建造时间（年）</t>
+  </si>
+  <si>
+    <t>老旧小区改造情况（1为未开展，2为进行中，3为已完成）</t>
+  </si>
+  <si>
+    <t>物业管理（0为有，1为无）</t>
+  </si>
+  <si>
+    <t>总建筑面积（平方米）</t>
+  </si>
+  <si>
+    <t>住宅总套数（套）</t>
+  </si>
+  <si>
+    <t>常住人口（人）</t>
+  </si>
+  <si>
+    <t>六十岁以上常住人口（人）</t>
+  </si>
+  <si>
+    <t>全部数量（栋）</t>
+  </si>
+  <si>
+    <t>1-3层（栋）</t>
+  </si>
+  <si>
+    <t>4-6层（栋）</t>
+  </si>
+  <si>
+    <t>7-9层（栋）</t>
+  </si>
+  <si>
+    <t>10层以上（栋）</t>
   </si>
   <si>
     <t>{.province}</t>
@@ -505,7 +505,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -515,8 +515,9 @@
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="20" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
